--- a/empty.xlsx
+++ b/empty.xlsx
@@ -472,7 +472,7 @@
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>2,632075</t>
+          <t>0,5932</t>
         </is>
       </c>
       <c r="B1" s="3" t="inlineStr">
@@ -572,7 +572,7 @@
     <row r="1" ht="15" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>GAMESWIFT</t>
         </is>
       </c>
       <c r="B1" s="3" t="n"/>
@@ -584,7 +584,11 @@
       <c r="H1" s="3" t="n"/>
     </row>
     <row r="2" ht="12.8" customHeight="1" s="2">
-      <c r="A2" s="3" t="inlineStr"/>
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
       <c r="B2" s="3" t="n"/>
       <c r="C2" s="3" t="n"/>
       <c r="D2" s="3" t="n"/>
@@ -594,7 +598,11 @@
       <c r="H2" s="3" t="n"/>
     </row>
     <row r="3" ht="15" customHeight="1" s="2">
-      <c r="A3" s="3" t="inlineStr"/>
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
       <c r="B3" s="3" t="n"/>
       <c r="C3" s="3" t="n"/>
       <c r="D3" s="3" t="n"/>

--- a/empty.xlsx
+++ b/empty.xlsx
@@ -467,12 +467,12 @@
       <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>0,5932</t>
+          <t>26628,62</t>
         </is>
       </c>
       <c r="B1" s="3" t="inlineStr">
@@ -494,14 +494,14 @@
     <row r="2" ht="12.8" customHeight="1" s="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>29860,91</t>
+          <t>1590,01</t>
         </is>
       </c>
     </row>
     <row r="3" ht="12.8" customHeight="1" s="2">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>0,616699</t>
+          <t>0,1473</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData/>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -564,19 +564,27 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R29" activeCellId="0" sqref="R29"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>GAMESWIFT</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
+          <t>BITCOIN</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>ETHEREUM</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>MOVER</t>
+        </is>
+      </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
@@ -589,8 +597,16 @@
           <t>Sheet1</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n"/>
-      <c r="C2" s="3" t="n"/>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
       <c r="D2" s="3" t="n"/>
       <c r="E2" s="3" t="n"/>
       <c r="F2" s="3" t="n"/>
@@ -603,8 +619,16 @@
           <t>A1</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n"/>
-      <c r="C3" s="3" t="n"/>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
       <c r="D3" s="3" t="n"/>
       <c r="E3" s="3" t="n"/>
       <c r="F3" s="3" t="n"/>
@@ -646,7 +670,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
@@ -717,7 +741,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData/>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -745,7 +769,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="4" ht="12.8" customHeight="1" s="2">
       <c r="A4" s="3" t="inlineStr">
@@ -795,7 +819,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
@@ -831,7 +855,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData/>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -859,7 +883,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="45" ht="12.8" customHeight="1" s="2">
       <c r="A45" s="3" t="inlineStr">
@@ -895,7 +919,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="3" ht="12.8" customHeight="1" s="2">
       <c r="A3" s="3" t="inlineStr">

--- a/empty.xlsx
+++ b/empty.xlsx
@@ -472,7 +472,7 @@
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>26628,62</t>
+          <t>26561,21</t>
         </is>
       </c>
       <c r="B1" s="3" t="inlineStr">
@@ -572,17 +572,17 @@
     <row r="1" ht="15" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>BITCOIN</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>ETHEREUM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>MOVER</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -592,21 +592,9 @@
       <c r="H1" s="3" t="n"/>
     </row>
     <row r="2" ht="12.8" customHeight="1" s="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
+      <c r="A2" s="3" t="inlineStr"/>
+      <c r="B2" s="3" t="inlineStr"/>
+      <c r="C2" s="3" t="inlineStr"/>
       <c r="D2" s="3" t="n"/>
       <c r="E2" s="3" t="n"/>
       <c r="F2" s="3" t="n"/>
@@ -614,21 +602,9 @@
       <c r="H2" s="3" t="n"/>
     </row>
     <row r="3" ht="15" customHeight="1" s="2">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
+      <c r="A3" s="3" t="inlineStr"/>
+      <c r="B3" s="3" t="inlineStr"/>
+      <c r="C3" s="3" t="inlineStr"/>
       <c r="D3" s="3" t="n"/>
       <c r="E3" s="3" t="n"/>
       <c r="F3" s="3" t="n"/>

--- a/empty.xlsx
+++ b/empty.xlsx
@@ -472,7 +472,7 @@
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>26561,21</t>
+          <t>6e-05</t>
         </is>
       </c>
       <c r="B1" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>terra-luna</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">
@@ -593,7 +593,11 @@
     </row>
     <row r="2" ht="12.8" customHeight="1" s="2">
       <c r="A2" s="3" t="inlineStr"/>
-      <c r="B2" s="3" t="inlineStr"/>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
       <c r="C2" s="3" t="inlineStr"/>
       <c r="D2" s="3" t="n"/>
       <c r="E2" s="3" t="n"/>
@@ -603,7 +607,11 @@
     </row>
     <row r="3" ht="15" customHeight="1" s="2">
       <c r="A3" s="3" t="inlineStr"/>
-      <c r="B3" s="3" t="inlineStr"/>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
       <c r="C3" s="3" t="inlineStr"/>
       <c r="D3" s="3" t="n"/>
       <c r="E3" s="3" t="n"/>

--- a/empty.xlsx
+++ b/empty.xlsx
@@ -461,18 +461,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>6e-05</t>
+          <t>6910,7</t>
         </is>
       </c>
       <c r="B1" s="3" t="inlineStr">
@@ -494,7 +494,7 @@
     <row r="2" ht="12.8" customHeight="1" s="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>1590,01</t>
+          <t>1495,21</t>
         </is>
       </c>
     </row>
@@ -505,10 +505,31 @@
         </is>
       </c>
     </row>
+    <row r="4" ht="12.8" customHeight="1" s="2">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>12.23</t>
+        </is>
+      </c>
+    </row>
     <row r="5" ht="12.8" customHeight="1" s="2">
       <c r="A5" s="3" t="inlineStr">
         <is>
           <t>0,339243</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="12.8" customHeight="1" s="2">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>2,199542</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="12.8" customHeight="1" s="2">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>60,81</t>
         </is>
       </c>
     </row>
@@ -539,7 +560,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData/>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -561,30 +582,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>terra-luna</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>ethereum</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
@@ -592,13 +605,13 @@
       <c r="H1" s="3" t="n"/>
     </row>
     <row r="2" ht="12.8" customHeight="1" s="2">
-      <c r="A2" s="3" t="inlineStr"/>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Sheet1</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr"/>
+      <c r="B2" s="3" t="n"/>
+      <c r="C2" s="3" t="n"/>
       <c r="D2" s="3" t="n"/>
       <c r="E2" s="3" t="n"/>
       <c r="F2" s="3" t="n"/>
@@ -606,20 +619,30 @@
       <c r="H2" s="3" t="n"/>
     </row>
     <row r="3" ht="15" customHeight="1" s="2">
-      <c r="A3" s="3" t="inlineStr"/>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>A1</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr"/>
+      <c r="B3" s="3" t="n"/>
+      <c r="C3" s="3" t="n"/>
       <c r="D3" s="3" t="n"/>
       <c r="E3" s="3" t="n"/>
       <c r="F3" s="3" t="n"/>
       <c r="G3" s="3" t="n"/>
       <c r="H3" s="3" t="n"/>
     </row>
-    <row r="4" ht="12.8" customHeight="1" s="2"/>
+    <row r="4" ht="12.8" customHeight="1" s="2">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>PLN</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="3" t="n"/>
+      <c r="E4" s="3" t="n"/>
+    </row>
     <row r="5" ht="12.8" customHeight="1" s="2"/>
     <row r="6" ht="12.8" customHeight="1" s="2"/>
     <row r="7" ht="12.8" customHeight="1" s="2"/>
@@ -654,7 +677,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
@@ -725,7 +748,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData/>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -753,7 +776,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="4" ht="12.8" customHeight="1" s="2">
       <c r="A4" s="3" t="inlineStr">
@@ -803,7 +826,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
@@ -839,7 +862,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData/>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -867,7 +890,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="45" ht="12.8" customHeight="1" s="2">
       <c r="A45" s="3" t="inlineStr">
@@ -903,7 +926,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="3" ht="12.8" customHeight="1" s="2">
       <c r="A3" s="3" t="inlineStr">
